--- a/Documents/Red London Game budget.xlsx
+++ b/Documents/Red London Game budget.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="43">
   <si>
     <t>Hero's Run</t>
   </si>
@@ -88,9 +88,6 @@
     <t>Salary Regis Geoffrion</t>
   </si>
   <si>
-    <t>3.5 months at $8,000/month</t>
-  </si>
-  <si>
     <t>Hardware</t>
   </si>
   <si>
@@ -140,6 +137,18 @@
   </si>
   <si>
     <t>esp. Performance or more difficult bugs</t>
+  </si>
+  <si>
+    <t>4 months at $8,000/month</t>
+  </si>
+  <si>
+    <t>Company</t>
+  </si>
+  <si>
+    <t>Laywer</t>
+  </si>
+  <si>
+    <t>Company logo</t>
   </si>
 </sst>
 </file>
@@ -584,10 +593,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -666,11 +675,11 @@
         <v>120</v>
       </c>
       <c r="D7">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="E7">
         <f>C7*D7</f>
-        <v>5400</v>
+        <v>7200</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -693,14 +702,14 @@
         <v>14</v>
       </c>
       <c r="C9">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="D9">
         <v>45</v>
       </c>
       <c r="E9">
         <f>C9*D9</f>
-        <v>720</v>
+        <v>1800</v>
       </c>
       <c r="G9" t="s">
         <v>15</v>
@@ -711,7 +720,7 @@
         <v>17</v>
       </c>
       <c r="E10">
-        <v>2500</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -719,7 +728,7 @@
         <v>18</v>
       </c>
       <c r="E11">
-        <v>3280</v>
+        <v>1500</v>
       </c>
       <c r="G11" t="s">
         <v>19</v>
@@ -735,19 +744,19 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E13">
         <f>(600+500)*1.1</f>
         <v>1210</v>
       </c>
       <c r="G13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E14">
         <v>6000</v>
@@ -755,7 +764,7 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C15">
         <v>120</v>
@@ -769,7 +778,7 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -781,12 +790,12 @@
         <v>0</v>
       </c>
       <c r="G16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C17">
         <v>120</v>
@@ -799,16 +808,16 @@
         <v>9000</v>
       </c>
       <c r="G17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E18" s="1">
         <f>SUM(E4:E17)</f>
-        <v>47000</v>
+        <v>46900</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -816,19 +825,48 @@
         <v>21</v>
       </c>
       <c r="E19">
-        <v>28000</v>
+        <v>32000</v>
       </c>
       <c r="G19" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E20" s="1">
         <f>E18+E19</f>
-        <v>75000</v>
+        <v>78900</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" t="s">
+        <v>41</v>
+      </c>
+      <c r="E23">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E24">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" t="s">
+        <v>42</v>
+      </c>
+      <c r="E25">
+        <v>500</v>
       </c>
     </row>
   </sheetData>
@@ -857,12 +895,12 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B3">
         <v>2500</v>
@@ -870,7 +908,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B4">
         <v>5000</v>
@@ -878,7 +916,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B5">
         <v>500</v>
@@ -886,7 +924,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B6">
         <v>2000</v>
@@ -894,7 +932,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B7">
         <v>2800</v>
@@ -902,7 +940,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B8">
         <v>2000</v>
